--- a/file_export/bieu_mau/m1.xlsx
+++ b/file_export/bieu_mau/m1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -16,17 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>BAN CHẤP HÀNH …………………………
-***</t>
-  </si>
-  <si>
-    <t>TRÍCH NGANG LÝ LỊCH BAN CHẤP HÀNH ĐOÀN…………………..</t>
-  </si>
-  <si>
-    <t>KHÓA……………, NHIỆM KỲ…………………….</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TT</t>
   </si>
@@ -37,74 +27,22 @@
     <t>NGÀY, THÁNG, NĂM SINH</t>
   </si>
   <si>
-    <t>QUÊ QUÁN</t>
-  </si>
-  <si>
-    <t>DÂN TỘC</t>
-  </si>
-  <si>
     <t>TRÌNH ĐỘ</t>
   </si>
   <si>
-    <t>NGÀY VÀO ĐOÀN</t>
-  </si>
-  <si>
-    <t>NGÀY VÀO ĐẢNG</t>
-  </si>
-  <si>
-    <t>CHỨC VỤ, ĐƠN VỊ CÔNG TÁC</t>
-  </si>
-  <si>
-    <t>CHỨC VỤ ĐẢNG</t>
-  </si>
-  <si>
-    <t>GHI CHÚ</t>
-  </si>
-  <si>
     <t>NAM</t>
   </si>
   <si>
     <t>NỮ</t>
   </si>
   <si>
-    <t>CHUYÊN MÔN</t>
-  </si>
-  <si>
-    <t>CHÍNH TRỊ</t>
-  </si>
-  <si>
-    <t>NGOẠI NGỮ</t>
-  </si>
-  <si>
-    <t>Trên ĐH</t>
-  </si>
-  <si>
-    <t>ĐH</t>
-  </si>
-  <si>
-    <t>CĐ</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>ĐH, CĐ</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <r>
-      <t>ĐOÀN TNCS HỒ CHÍ MINH</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BỘ GIAO THÔNG VẬN TẢI</t>
     </r>
     <r>
       <rPr>
@@ -114,8 +52,56 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-………,ngày………tháng…….. năm ….....</t>
+TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GTVT</t>
     </r>
+  </si>
+  <si>
+    <t>PHỤ LỤC SỐ 4</t>
+  </si>
+  <si>
+    <t>THỐNG KÊ THỰC TRẠNG ĐỘI NGŨ VIÊN CHỨC TRONG ĐƠN VỊ SỰ NGHIỆP CÔNG LẬP</t>
+  </si>
+  <si>
+    <t>Tính đến ngày…</t>
+  </si>
+  <si>
+    <t>CHỨC VỤ, CHỨC DANH</t>
+  </si>
+  <si>
+    <t>CÁC NHIỆM VỤ ĐANG ĐẢM NHẬN</t>
+  </si>
+  <si>
+    <t>NĂM TUYỂN DỤNG</t>
+  </si>
+  <si>
+    <t>VÀO CƠ QUAN NHÀ NƯỚC</t>
+  </si>
+  <si>
+    <t>VÀO ĐƠN VỊ ĐANG LÀM VIỆC</t>
+  </si>
+  <si>
+    <t>NGẠCH(CHỨC DANH NGHỀ NGHIỆP HIỆN ĐANG GIỮ</t>
+  </si>
+  <si>
+    <t>TRÌNH ĐỘ CHUYÊN MÔN CAO NHẤT</t>
+  </si>
+  <si>
+    <t>CHUYÊN NGÀNH ĐÀO TẠO</t>
+  </si>
+  <si>
+    <t>HỆ ĐÀO TẠO</t>
+  </si>
+  <si>
+    <t>TRÌNH ĐỘ NGOẠI NGỮ</t>
+  </si>
+  <si>
+    <t>TRÌNH ĐỘ TIN HỌC</t>
+  </si>
+  <si>
+    <t>CHỨNG CHỈ BỒI DƯỠNG NGHIỆP VỤ SƯ PHẠM</t>
+  </si>
+  <si>
+    <t>CƠ SỞ ĐÀO TẠO HÀ NỘI</t>
   </si>
 </sst>
 </file>
@@ -163,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -225,36 +211,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -264,46 +226,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,80 +282,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 1"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8324850" y="0"/>
-          <a:ext cx="857250" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>M1 T1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,107 +571,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T9"/>
+  <dimension ref="A2:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:T8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="7.42578125" style="10" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="7.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="7.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="N2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
+    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -789,142 +668,165 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8</v>
+      </c>
+      <c r="I9" s="5">
         <v>9</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="J9" s="5">
         <v>10</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="K9" s="5">
         <v>11</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="L9" s="5">
         <v>12</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="M9" s="5">
         <v>13</v>
       </c>
+      <c r="N9" s="5">
+        <v>14</v>
+      </c>
+      <c r="O9" s="5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
+    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-    </row>
-    <row r="9" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A5:T5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="G7:I7"/>
+  <mergeCells count="17">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
